--- a/data/database/EEE.xlsx
+++ b/data/database/EEE.xlsx
@@ -63,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -84,13 +84,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,12 +128,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -164,7 +153,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -172,7 +161,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3603238866397"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.668016194332"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.6599190283401"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.9028340080972"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
@@ -202,7 +191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -212,7 +201,7 @@
       <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -228,7 +217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -238,7 +227,7 @@
       <c r="C3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="0" t="s">
@@ -255,10 +244,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="sarthak@gmail.com"/>
-    <hyperlink ref="D3" r:id="rId2" display="rajat@gmail.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data/database/EEE.xlsx
+++ b/data/database/EEE.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>sno</t>
   </si>
@@ -29,6 +29,9 @@
     <t>email</t>
   </si>
   <si>
+    <t>contact</t>
+  </si>
+  <si>
     <t>branch</t>
   </si>
   <si>
@@ -44,16 +47,13 @@
     <t>Sarthak Tomar</t>
   </si>
   <si>
-    <t>sarthak@gmail.com</t>
+    <t>prikshittekta@gmail.com</t>
   </si>
   <si>
     <t>EEE</t>
   </si>
   <si>
     <t>Rajat Thakur</t>
-  </si>
-  <si>
-    <t>rajat@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -150,19 +150,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3603238866397"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.9028340080972"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.1538461538462"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.4574898785425"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1174089068826"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -190,6 +191,9 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -199,21 +203,24 @@
         <v>12277</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>80</v>
+      <c r="E2" s="0" t="n">
+        <v>9882273873</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="H2" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <v>9</v>
       </c>
     </row>
@@ -225,21 +232,24 @@
         <v>12215</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>9882273873</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>90</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>90</v>
       </c>
       <c r="H3" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <v>9</v>
       </c>
     </row>
